--- a/user-data/mean-years-of-schooling/mean-years-of-schooling.xlsx
+++ b/user-data/mean-years-of-schooling/mean-years-of-schooling.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="403">
   <si>
     <t>id</t>
   </si>
@@ -1204,9 +1204,6 @@
     <t>Source: UN HDR</t>
   </si>
   <si>
-    <t>Source-link: NA</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -1589,32 +1586,32 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="13">
@@ -1630,11 +1627,6 @@
     <row r="15">
       <c r="A15" t="s">
         <v>402</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>403</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/mean-years-of-schooling/mean-years-of-schooling.xlsx
+++ b/user-data/mean-years-of-schooling/mean-years-of-schooling.xlsx
@@ -8,7 +8,7 @@
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
-    <sheet name="Data-wide" sheetId="3" r:id="rId3"/>
+    <sheet name="Data-wide-value" sheetId="3" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>
@@ -1210,7 +1210,7 @@
     <t>Notes:</t>
   </si>
   <si>
-    <t>On the 'Data-wide' sheet, we have provided the indicator in a wide format. The values you see listed there are only from the 'value' column.</t>
+    <t>On the 'Data-wide-value' sheet, we have provided the indicator in a wide format. The values you see listed there are from the 'value' column.</t>
   </si>
   <si>
     <t>The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>

--- a/user-data/mean-years-of-schooling/mean-years-of-schooling.xlsx
+++ b/user-data/mean-years-of-schooling/mean-years-of-schooling.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="404">
   <si>
     <t>id</t>
   </si>
@@ -1216,7 +1216,10 @@
     <t>The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>
   </si>
   <si>
-    <t>It is provided on an as-is basis under an open-use license.</t>
+    <t>It is licensed under a Creative Commons Attribution 4.0 International license.</t>
+  </si>
+  <si>
+    <t>More information on licensing is available here: https://creativecommons.org/licenses/by/4.0/</t>
   </si>
   <si>
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
@@ -1629,6 +1632,11 @@
         <v>402</v>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>403</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/user-data/mean-years-of-schooling/mean-years-of-schooling.xlsx
+++ b/user-data/mean-years-of-schooling/mean-years-of-schooling.xlsx
@@ -61,7 +61,7 @@
     <t>AG</t>
   </si>
   <si>
-    <t>Antigua and Barbuda</t>
+    <t>Antigua &amp; Barbuda</t>
   </si>
   <si>
     <t>AR</t>
@@ -157,7 +157,7 @@
     <t>BA</t>
   </si>
   <si>
-    <t>Bosnia and Herzegovina</t>
+    <t>Bosnia &amp; Herzegovina</t>
   </si>
   <si>
     <t>BW</t>
@@ -194,12 +194,6 @@
   </si>
   <si>
     <t>Burundi</t>
-  </si>
-  <si>
-    <t>CI</t>
-  </si>
-  <si>
-    <t>CÃ´te d'Ivoire</t>
   </si>
   <si>
     <t>KH</t>
@@ -272,6 +266,12 @@
   </si>
   <si>
     <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>CI</t>
+  </si>
+  <si>
+    <t>Cote d'Ivoire</t>
   </si>
   <si>
     <t>HR</t>
@@ -883,7 +883,7 @@
     <t>VC</t>
   </si>
   <si>
-    <t>Saint Vincent and the Grenadines</t>
+    <t>Saint Vincent &amp; the Grenadines</t>
   </si>
   <si>
     <t>WS</t>
@@ -895,7 +895,7 @@
     <t>ST</t>
   </si>
   <si>
-    <t>Sao Tome and Principe</t>
+    <t>Sao Tome &amp; Principe</t>
   </si>
   <si>
     <t>SA</t>
@@ -1051,7 +1051,7 @@
     <t>TT</t>
   </si>
   <si>
-    <t>Trinidad and Tobago</t>
+    <t>Trinidad &amp; Tobago</t>
   </si>
   <si>
     <t>TN</t>
@@ -1084,16 +1084,16 @@
     <t>Uganda</t>
   </si>
   <si>
+    <t>GB</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
     <t>UA</t>
   </si>
   <si>
     <t>Ukraine</t>
-  </si>
-  <si>
-    <t>GB</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
   </si>
   <si>
     <t>UY</t>
@@ -1225,7 +1225,7 @@
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
   </si>
   <si>
-    <t>Copyright Development Initiatives Poverty Research Ltd. 2015</t>
+    <t>Copyright Development Initiatives Poverty Research Ltd. 2016</t>
   </si>
 </sst>
 </file>
@@ -6912,7 +6912,7 @@
         <v>2000</v>
       </c>
       <c r="D394" t="n">
-        <v>3.2</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="395">
@@ -6974,7 +6974,7 @@
         <v>2005</v>
       </c>
       <c r="D399" t="n">
-        <v>3.7</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="400">
@@ -6988,7 +6988,7 @@
         <v>2006</v>
       </c>
       <c r="D400" t="n">
-        <v>3.8</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="401">
@@ -7002,7 +7002,7 @@
         <v>2007</v>
       </c>
       <c r="D401" t="n">
-        <v>3.9</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="402">
@@ -7016,7 +7016,7 @@
         <v>2008</v>
       </c>
       <c r="D402" t="n">
-        <v>4.1</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="403">
@@ -7030,7 +7030,7 @@
         <v>2009</v>
       </c>
       <c r="D403" t="n">
-        <v>4.2</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="404">
@@ -7044,7 +7044,7 @@
         <v>2010</v>
       </c>
       <c r="D404" t="n">
-        <v>4.3</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="405">
@@ -7058,7 +7058,7 @@
         <v>2011</v>
       </c>
       <c r="D405" t="n">
-        <v>4.3</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="406">
@@ -7072,7 +7072,7 @@
         <v>2012</v>
       </c>
       <c r="D406" t="n">
-        <v>4.3</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="407">
@@ -7086,7 +7086,7 @@
         <v>2013</v>
       </c>
       <c r="D407" t="n">
-        <v>4.3</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="408">
@@ -7100,7 +7100,7 @@
         <v>2000</v>
       </c>
       <c r="D408" t="n">
-        <v>5.7</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="409">
@@ -7162,7 +7162,7 @@
         <v>2005</v>
       </c>
       <c r="D413" t="n">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="414">
@@ -7176,7 +7176,7 @@
         <v>2006</v>
       </c>
       <c r="D414" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="415">
@@ -7190,7 +7190,7 @@
         <v>2007</v>
       </c>
       <c r="D415" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="416">
@@ -7232,7 +7232,7 @@
         <v>2010</v>
       </c>
       <c r="D418" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="419">
@@ -7246,7 +7246,7 @@
         <v>2011</v>
       </c>
       <c r="D419" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="420">
@@ -7260,7 +7260,7 @@
         <v>2012</v>
       </c>
       <c r="D420" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="421">
@@ -7274,7 +7274,7 @@
         <v>2013</v>
       </c>
       <c r="D421" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="422">
@@ -7288,7 +7288,7 @@
         <v>2000</v>
       </c>
       <c r="D422" t="n">
-        <v>4.8</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="423">
@@ -7350,7 +7350,7 @@
         <v>2005</v>
       </c>
       <c r="D427" t="n">
-        <v>5.4</v>
+        <v>12.3</v>
       </c>
     </row>
     <row r="428">
@@ -7364,7 +7364,7 @@
         <v>2006</v>
       </c>
       <c r="D428" t="n">
-        <v>5.5</v>
+        <v>12.3</v>
       </c>
     </row>
     <row r="429">
@@ -7378,7 +7378,7 @@
         <v>2007</v>
       </c>
       <c r="D429" t="n">
-        <v>5.6</v>
+        <v>12.3</v>
       </c>
     </row>
     <row r="430">
@@ -7392,7 +7392,7 @@
         <v>2008</v>
       </c>
       <c r="D430" t="n">
-        <v>5.7</v>
+        <v>12.3</v>
       </c>
     </row>
     <row r="431">
@@ -7406,7 +7406,7 @@
         <v>2009</v>
       </c>
       <c r="D431" t="n">
-        <v>5.8</v>
+        <v>12.3</v>
       </c>
     </row>
     <row r="432">
@@ -7420,7 +7420,7 @@
         <v>2010</v>
       </c>
       <c r="D432" t="n">
-        <v>5.9</v>
+        <v>12.3</v>
       </c>
     </row>
     <row r="433">
@@ -7434,7 +7434,7 @@
         <v>2011</v>
       </c>
       <c r="D433" t="n">
-        <v>5.9</v>
+        <v>12.3</v>
       </c>
     </row>
     <row r="434">
@@ -7448,7 +7448,7 @@
         <v>2012</v>
       </c>
       <c r="D434" t="n">
-        <v>5.9</v>
+        <v>12.3</v>
       </c>
     </row>
     <row r="435">
@@ -7462,7 +7462,7 @@
         <v>2013</v>
       </c>
       <c r="D435" t="n">
-        <v>5.9</v>
+        <v>12.3</v>
       </c>
     </row>
     <row r="436">
@@ -7476,7 +7476,7 @@
         <v>2000</v>
       </c>
       <c r="D436" t="n">
-        <v>11.1</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="437">
@@ -7538,7 +7538,7 @@
         <v>2005</v>
       </c>
       <c r="D441" t="n">
-        <v>12.3</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="442">
@@ -7552,7 +7552,7 @@
         <v>2006</v>
       </c>
       <c r="D442" t="n">
-        <v>12.3</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="443">
@@ -7566,7 +7566,7 @@
         <v>2007</v>
       </c>
       <c r="D443" t="n">
-        <v>12.3</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="444">
@@ -7580,7 +7580,7 @@
         <v>2008</v>
       </c>
       <c r="D444" t="n">
-        <v>12.3</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="445">
@@ -7594,7 +7594,7 @@
         <v>2009</v>
       </c>
       <c r="D445" t="n">
-        <v>12.3</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="446">
@@ -7608,7 +7608,7 @@
         <v>2010</v>
       </c>
       <c r="D446" t="n">
-        <v>12.3</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="447">
@@ -7622,7 +7622,7 @@
         <v>2011</v>
       </c>
       <c r="D447" t="n">
-        <v>12.3</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="448">
@@ -7636,7 +7636,7 @@
         <v>2012</v>
       </c>
       <c r="D448" t="n">
-        <v>12.3</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="449">
@@ -7650,7 +7650,7 @@
         <v>2013</v>
       </c>
       <c r="D449" t="n">
-        <v>12.3</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="450">
@@ -7664,7 +7664,7 @@
         <v>2000</v>
       </c>
       <c r="D450" t="n">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="451">
@@ -7726,7 +7726,7 @@
         <v>2005</v>
       </c>
       <c r="D455" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="456">
@@ -7740,7 +7740,7 @@
         <v>2006</v>
       </c>
       <c r="D456" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="457">
@@ -7754,7 +7754,7 @@
         <v>2007</v>
       </c>
       <c r="D457" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="458">
@@ -7768,7 +7768,7 @@
         <v>2008</v>
       </c>
       <c r="D458" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="459">
@@ -7852,7 +7852,7 @@
         <v>2000</v>
       </c>
       <c r="D464" t="n">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="465">
@@ -7914,7 +7914,7 @@
         <v>2005</v>
       </c>
       <c r="D469" t="n">
-        <v>3.2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="470">
@@ -7928,7 +7928,7 @@
         <v>2006</v>
       </c>
       <c r="D470" t="n">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="471">
@@ -7942,7 +7942,7 @@
         <v>2007</v>
       </c>
       <c r="D471" t="n">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="472">
@@ -7956,7 +7956,7 @@
         <v>2008</v>
       </c>
       <c r="D472" t="n">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="473">
@@ -7970,7 +7970,7 @@
         <v>2009</v>
       </c>
       <c r="D473" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="474">
@@ -7984,7 +7984,7 @@
         <v>2010</v>
       </c>
       <c r="D474" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="475">
@@ -7998,7 +7998,7 @@
         <v>2011</v>
       </c>
       <c r="D475" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="476">
@@ -8012,7 +8012,7 @@
         <v>2012</v>
       </c>
       <c r="D476" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="477">
@@ -8026,7 +8026,7 @@
         <v>2013</v>
       </c>
       <c r="D477" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="478">
@@ -8040,7 +8040,7 @@
         <v>2000</v>
       </c>
       <c r="D478" t="n">
-        <v>1.5</v>
+        <v>8.8</v>
       </c>
     </row>
     <row r="479">
@@ -8089,7 +8089,9 @@
       <c r="C482" t="n">
         <v>2004</v>
       </c>
-      <c r="D482"/>
+      <c r="D482" t="n">
+        <v>9.59755</v>
+      </c>
     </row>
     <row r="483">
       <c r="A483" t="s">
@@ -8102,7 +8104,7 @@
         <v>2005</v>
       </c>
       <c r="D483" t="n">
-        <v>1.5</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="484">
@@ -8116,7 +8118,7 @@
         <v>2006</v>
       </c>
       <c r="D484" t="n">
-        <v>1.5</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="485">
@@ -8130,7 +8132,7 @@
         <v>2007</v>
       </c>
       <c r="D485" t="n">
-        <v>1.5</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="486">
@@ -8144,7 +8146,7 @@
         <v>2008</v>
       </c>
       <c r="D486" t="n">
-        <v>1.5</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="487">
@@ -8158,7 +8160,7 @@
         <v>2009</v>
       </c>
       <c r="D487" t="n">
-        <v>1.5</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="488">
@@ -8172,7 +8174,7 @@
         <v>2010</v>
       </c>
       <c r="D488" t="n">
-        <v>1.5</v>
+        <v>9.8</v>
       </c>
     </row>
     <row r="489">
@@ -8186,7 +8188,7 @@
         <v>2011</v>
       </c>
       <c r="D489" t="n">
-        <v>1.5</v>
+        <v>9.8</v>
       </c>
     </row>
     <row r="490">
@@ -8200,7 +8202,7 @@
         <v>2012</v>
       </c>
       <c r="D490" t="n">
-        <v>1.5</v>
+        <v>9.8</v>
       </c>
     </row>
     <row r="491">
@@ -8214,7 +8216,7 @@
         <v>2013</v>
       </c>
       <c r="D491" t="n">
-        <v>1.5</v>
+        <v>9.8</v>
       </c>
     </row>
     <row r="492">
@@ -8228,7 +8230,7 @@
         <v>2000</v>
       </c>
       <c r="D492" t="n">
-        <v>8.8</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="493">
@@ -8277,9 +8279,7 @@
       <c r="C496" t="n">
         <v>2004</v>
       </c>
-      <c r="D496" t="n">
-        <v>9.59755</v>
-      </c>
+      <c r="D496"/>
     </row>
     <row r="497">
       <c r="A497" t="s">
@@ -8292,7 +8292,7 @@
         <v>2005</v>
       </c>
       <c r="D497" t="n">
-        <v>9.5</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="498">
@@ -8306,7 +8306,7 @@
         <v>2006</v>
       </c>
       <c r="D498" t="n">
-        <v>9.5</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="499">
@@ -8320,7 +8320,7 @@
         <v>2007</v>
       </c>
       <c r="D499" t="n">
-        <v>9.4</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="500">
@@ -8334,7 +8334,7 @@
         <v>2008</v>
       </c>
       <c r="D500" t="n">
-        <v>9.9</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="501">
@@ -8348,7 +8348,7 @@
         <v>2009</v>
       </c>
       <c r="D501" t="n">
-        <v>9.9</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="502">
@@ -8362,7 +8362,7 @@
         <v>2010</v>
       </c>
       <c r="D502" t="n">
-        <v>9.8</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="503">
@@ -8376,7 +8376,7 @@
         <v>2011</v>
       </c>
       <c r="D503" t="n">
-        <v>9.8</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="504">
@@ -8390,7 +8390,7 @@
         <v>2012</v>
       </c>
       <c r="D504" t="n">
-        <v>9.8</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="505">
@@ -8404,7 +8404,7 @@
         <v>2013</v>
       </c>
       <c r="D505" t="n">
-        <v>9.8</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="506">
@@ -8418,7 +8418,7 @@
         <v>2000</v>
       </c>
       <c r="D506" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="507">
@@ -8467,7 +8467,9 @@
       <c r="C510" t="n">
         <v>2004</v>
       </c>
-      <c r="D510"/>
+      <c r="D510" t="n">
+        <v>6.55907</v>
+      </c>
     </row>
     <row r="511">
       <c r="A511" t="s">
@@ -8480,7 +8482,7 @@
         <v>2005</v>
       </c>
       <c r="D511" t="n">
-        <v>7.1</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="512">
@@ -8494,7 +8496,7 @@
         <v>2006</v>
       </c>
       <c r="D512" t="n">
-        <v>7.2</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="513">
@@ -8508,7 +8510,7 @@
         <v>2007</v>
       </c>
       <c r="D513" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="514">
@@ -8522,7 +8524,7 @@
         <v>2008</v>
       </c>
       <c r="D514" t="n">
-        <v>7.3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="515">
@@ -8536,7 +8538,7 @@
         <v>2009</v>
       </c>
       <c r="D515" t="n">
-        <v>7.4</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="516">
@@ -8550,7 +8552,7 @@
         <v>2010</v>
       </c>
       <c r="D516" t="n">
-        <v>7.5</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="517">
@@ -8564,7 +8566,7 @@
         <v>2011</v>
       </c>
       <c r="D517" t="n">
-        <v>7.5</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="518">
@@ -8578,7 +8580,7 @@
         <v>2012</v>
       </c>
       <c r="D518" t="n">
-        <v>7.5</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="519">
@@ -8592,7 +8594,7 @@
         <v>2013</v>
       </c>
       <c r="D519" t="n">
-        <v>7.5</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="520">
@@ -8605,9 +8607,7 @@
       <c r="C520" t="n">
         <v>2000</v>
       </c>
-      <c r="D520" t="n">
-        <v>6.5</v>
-      </c>
+      <c r="D520"/>
     </row>
     <row r="521">
       <c r="A521" t="s">
@@ -8655,9 +8655,7 @@
       <c r="C524" t="n">
         <v>2004</v>
       </c>
-      <c r="D524" t="n">
-        <v>6.55907</v>
-      </c>
+      <c r="D524"/>
     </row>
     <row r="525">
       <c r="A525" t="s">
@@ -8670,7 +8668,7 @@
         <v>2005</v>
       </c>
       <c r="D525" t="n">
-        <v>6.8</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="526">
@@ -8684,7 +8682,7 @@
         <v>2006</v>
       </c>
       <c r="D526" t="n">
-        <v>6.7</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="527">
@@ -8698,7 +8696,7 @@
         <v>2007</v>
       </c>
       <c r="D527" t="n">
-        <v>6.8</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="528">
@@ -8712,7 +8710,7 @@
         <v>2008</v>
       </c>
       <c r="D528" t="n">
-        <v>7</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="529">
@@ -8726,7 +8724,7 @@
         <v>2009</v>
       </c>
       <c r="D529" t="n">
-        <v>6.9</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="530">
@@ -8740,7 +8738,7 @@
         <v>2010</v>
       </c>
       <c r="D530" t="n">
-        <v>7.1</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="531">
@@ -8754,7 +8752,7 @@
         <v>2011</v>
       </c>
       <c r="D531" t="n">
-        <v>7.1</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="532">
@@ -8768,7 +8766,7 @@
         <v>2012</v>
       </c>
       <c r="D532" t="n">
-        <v>7.1</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="533">
@@ -8782,7 +8780,7 @@
         <v>2013</v>
       </c>
       <c r="D533" t="n">
-        <v>7.1</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="534">
@@ -8795,7 +8793,9 @@
       <c r="C534" t="n">
         <v>2000</v>
       </c>
-      <c r="D534"/>
+      <c r="D534" t="n">
+        <v>5.5</v>
+      </c>
     </row>
     <row r="535">
       <c r="A535" t="s">
@@ -8856,7 +8856,7 @@
         <v>2005</v>
       </c>
       <c r="D539" t="n">
-        <v>2.8</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="540">
@@ -8870,7 +8870,7 @@
         <v>2006</v>
       </c>
       <c r="D540" t="n">
-        <v>2.8</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="541">
@@ -8884,7 +8884,7 @@
         <v>2007</v>
       </c>
       <c r="D541" t="n">
-        <v>2.8</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="542">
@@ -8898,7 +8898,7 @@
         <v>2008</v>
       </c>
       <c r="D542" t="n">
-        <v>2.8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="543">
@@ -8912,7 +8912,7 @@
         <v>2009</v>
       </c>
       <c r="D543" t="n">
-        <v>2.8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="544">
@@ -8926,7 +8926,7 @@
         <v>2010</v>
       </c>
       <c r="D544" t="n">
-        <v>2.8</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="545">
@@ -8940,7 +8940,7 @@
         <v>2011</v>
       </c>
       <c r="D545" t="n">
-        <v>2.8</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="546">
@@ -8954,7 +8954,7 @@
         <v>2012</v>
       </c>
       <c r="D546" t="n">
-        <v>2.8</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="547">
@@ -8968,7 +8968,7 @@
         <v>2013</v>
       </c>
       <c r="D547" t="n">
-        <v>2.8</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="548">
@@ -8982,7 +8982,7 @@
         <v>2000</v>
       </c>
       <c r="D548" t="n">
-        <v>5.5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="549">
@@ -9044,7 +9044,7 @@
         <v>2005</v>
       </c>
       <c r="D553" t="n">
-        <v>5.8</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="554">
@@ -9058,7 +9058,7 @@
         <v>2006</v>
       </c>
       <c r="D554" t="n">
-        <v>5.9</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="555">
@@ -9072,7 +9072,7 @@
         <v>2007</v>
       </c>
       <c r="D555" t="n">
-        <v>5.9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="556">
@@ -9086,7 +9086,7 @@
         <v>2008</v>
       </c>
       <c r="D556" t="n">
-        <v>6</v>
+        <v>8.2</v>
       </c>
     </row>
     <row r="557">
@@ -9100,7 +9100,7 @@
         <v>2009</v>
       </c>
       <c r="D557" t="n">
-        <v>6</v>
+        <v>8.3</v>
       </c>
     </row>
     <row r="558">
@@ -9114,7 +9114,7 @@
         <v>2010</v>
       </c>
       <c r="D558" t="n">
-        <v>6.1</v>
+        <v>8.2</v>
       </c>
     </row>
     <row r="559">
@@ -9128,7 +9128,7 @@
         <v>2011</v>
       </c>
       <c r="D559" t="n">
-        <v>6.1</v>
+        <v>8.3</v>
       </c>
     </row>
     <row r="560">
@@ -9142,7 +9142,7 @@
         <v>2012</v>
       </c>
       <c r="D560" t="n">
-        <v>6.1</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="561">
@@ -9156,7 +9156,7 @@
         <v>2013</v>
       </c>
       <c r="D561" t="n">
-        <v>6.1</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="562">
@@ -9170,7 +9170,7 @@
         <v>2000</v>
       </c>
       <c r="D562" t="n">
-        <v>8</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="563">
@@ -9232,7 +9232,7 @@
         <v>2005</v>
       </c>
       <c r="D567" t="n">
-        <v>7.9</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="568">
@@ -9246,7 +9246,7 @@
         <v>2006</v>
       </c>
       <c r="D568" t="n">
-        <v>7.9</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="569">
@@ -9260,7 +9260,7 @@
         <v>2007</v>
       </c>
       <c r="D569" t="n">
-        <v>8</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="570">
@@ -9274,7 +9274,7 @@
         <v>2008</v>
       </c>
       <c r="D570" t="n">
-        <v>8.2</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="571">
@@ -9288,7 +9288,7 @@
         <v>2009</v>
       </c>
       <c r="D571" t="n">
-        <v>8.3</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="572">
@@ -9302,7 +9302,7 @@
         <v>2010</v>
       </c>
       <c r="D572" t="n">
-        <v>8.2</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="573">
@@ -9316,7 +9316,7 @@
         <v>2011</v>
       </c>
       <c r="D573" t="n">
-        <v>8.3</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="574">
@@ -9330,7 +9330,7 @@
         <v>2012</v>
       </c>
       <c r="D574" t="n">
-        <v>8.4</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="575">
@@ -9344,7 +9344,7 @@
         <v>2013</v>
       </c>
       <c r="D575" t="n">
-        <v>8.4</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="576">
@@ -34698,7 +34698,7 @@
         <v>2000</v>
       </c>
       <c r="D2466" t="n">
-        <v>10.7</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="2467">
@@ -34760,7 +34760,7 @@
         <v>2005</v>
       </c>
       <c r="D2471" t="n">
-        <v>11.1</v>
+        <v>12.2</v>
       </c>
     </row>
     <row r="2472">
@@ -34774,7 +34774,7 @@
         <v>2006</v>
       </c>
       <c r="D2472" t="n">
-        <v>11.2</v>
+        <v>12.2</v>
       </c>
     </row>
     <row r="2473">
@@ -34788,7 +34788,7 @@
         <v>2007</v>
       </c>
       <c r="D2473" t="n">
-        <v>11.2</v>
+        <v>12.2</v>
       </c>
     </row>
     <row r="2474">
@@ -34802,7 +34802,7 @@
         <v>2008</v>
       </c>
       <c r="D2474" t="n">
-        <v>11.2</v>
+        <v>12.3</v>
       </c>
     </row>
     <row r="2475">
@@ -34816,7 +34816,7 @@
         <v>2009</v>
       </c>
       <c r="D2475" t="n">
-        <v>11.2</v>
+        <v>12.3</v>
       </c>
     </row>
     <row r="2476">
@@ -34830,7 +34830,7 @@
         <v>2010</v>
       </c>
       <c r="D2476" t="n">
-        <v>11.3</v>
+        <v>12.3</v>
       </c>
     </row>
     <row r="2477">
@@ -34844,7 +34844,7 @@
         <v>2011</v>
       </c>
       <c r="D2477" t="n">
-        <v>11.3</v>
+        <v>12.3</v>
       </c>
     </row>
     <row r="2478">
@@ -34858,7 +34858,7 @@
         <v>2012</v>
       </c>
       <c r="D2478" t="n">
-        <v>11.3</v>
+        <v>12.3</v>
       </c>
     </row>
     <row r="2479">
@@ -34872,7 +34872,7 @@
         <v>2013</v>
       </c>
       <c r="D2479" t="n">
-        <v>11.3</v>
+        <v>12.3</v>
       </c>
     </row>
     <row r="2480">
@@ -34886,7 +34886,7 @@
         <v>2000</v>
       </c>
       <c r="D2480" t="n">
-        <v>11.6</v>
+        <v>10.7</v>
       </c>
     </row>
     <row r="2481">
@@ -34948,7 +34948,7 @@
         <v>2005</v>
       </c>
       <c r="D2485" t="n">
-        <v>12.2</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="2486">
@@ -34962,7 +34962,7 @@
         <v>2006</v>
       </c>
       <c r="D2486" t="n">
-        <v>12.2</v>
+        <v>11.2</v>
       </c>
     </row>
     <row r="2487">
@@ -34976,7 +34976,7 @@
         <v>2007</v>
       </c>
       <c r="D2487" t="n">
-        <v>12.2</v>
+        <v>11.2</v>
       </c>
     </row>
     <row r="2488">
@@ -34990,7 +34990,7 @@
         <v>2008</v>
       </c>
       <c r="D2488" t="n">
-        <v>12.3</v>
+        <v>11.2</v>
       </c>
     </row>
     <row r="2489">
@@ -35004,7 +35004,7 @@
         <v>2009</v>
       </c>
       <c r="D2489" t="n">
-        <v>12.3</v>
+        <v>11.2</v>
       </c>
     </row>
     <row r="2490">
@@ -35018,7 +35018,7 @@
         <v>2010</v>
       </c>
       <c r="D2490" t="n">
-        <v>12.3</v>
+        <v>11.3</v>
       </c>
     </row>
     <row r="2491">
@@ -35032,7 +35032,7 @@
         <v>2011</v>
       </c>
       <c r="D2491" t="n">
-        <v>12.3</v>
+        <v>11.3</v>
       </c>
     </row>
     <row r="2492">
@@ -35046,7 +35046,7 @@
         <v>2012</v>
       </c>
       <c r="D2492" t="n">
-        <v>12.3</v>
+        <v>11.3</v>
       </c>
     </row>
     <row r="2493">
@@ -35060,7 +35060,7 @@
         <v>2013</v>
       </c>
       <c r="D2493" t="n">
-        <v>12.3</v>
+        <v>11.3</v>
       </c>
     </row>
     <row r="2494">
@@ -37965,38 +37965,38 @@
         <v>61</v>
       </c>
       <c r="C30" t="n">
-        <v>3.2</v>
+        <v>5.7</v>
       </c>
       <c r="D30"/>
       <c r="E30"/>
       <c r="F30"/>
       <c r="G30"/>
       <c r="H30" t="n">
-        <v>3.7</v>
+        <v>5.7</v>
       </c>
       <c r="I30" t="n">
-        <v>3.8</v>
+        <v>5.7</v>
       </c>
       <c r="J30" t="n">
-        <v>3.9</v>
+        <v>5.7</v>
       </c>
       <c r="K30" t="n">
-        <v>4.1</v>
+        <v>5.7</v>
       </c>
       <c r="L30" t="n">
-        <v>4.2</v>
+        <v>5.8</v>
       </c>
       <c r="M30" t="n">
-        <v>4.3</v>
+        <v>5.8</v>
       </c>
       <c r="N30" t="n">
-        <v>4.3</v>
+        <v>5.8</v>
       </c>
       <c r="O30" t="n">
-        <v>4.3</v>
+        <v>5.8</v>
       </c>
       <c r="P30" t="n">
-        <v>4.3</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="31">
@@ -38007,20 +38007,20 @@
         <v>63</v>
       </c>
       <c r="C31" t="n">
-        <v>5.7</v>
+        <v>4.8</v>
       </c>
       <c r="D31"/>
       <c r="E31"/>
       <c r="F31"/>
       <c r="G31"/>
       <c r="H31" t="n">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="I31" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="J31" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="K31" t="n">
         <v>5.7</v>
@@ -38029,16 +38029,16 @@
         <v>5.8</v>
       </c>
       <c r="M31" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="N31" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="O31" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="P31" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="32">
@@ -38049,38 +38049,38 @@
         <v>65</v>
       </c>
       <c r="C32" t="n">
-        <v>4.8</v>
+        <v>11.1</v>
       </c>
       <c r="D32"/>
       <c r="E32"/>
       <c r="F32"/>
       <c r="G32"/>
       <c r="H32" t="n">
-        <v>5.4</v>
+        <v>12.3</v>
       </c>
       <c r="I32" t="n">
-        <v>5.5</v>
+        <v>12.3</v>
       </c>
       <c r="J32" t="n">
-        <v>5.6</v>
+        <v>12.3</v>
       </c>
       <c r="K32" t="n">
-        <v>5.7</v>
+        <v>12.3</v>
       </c>
       <c r="L32" t="n">
-        <v>5.8</v>
+        <v>12.3</v>
       </c>
       <c r="M32" t="n">
-        <v>5.9</v>
+        <v>12.3</v>
       </c>
       <c r="N32" t="n">
-        <v>5.9</v>
+        <v>12.3</v>
       </c>
       <c r="O32" t="n">
-        <v>5.9</v>
+        <v>12.3</v>
       </c>
       <c r="P32" t="n">
-        <v>5.9</v>
+        <v>12.3</v>
       </c>
     </row>
     <row r="33">
@@ -38091,38 +38091,38 @@
         <v>67</v>
       </c>
       <c r="C33" t="n">
-        <v>11.1</v>
+        <v>3.5</v>
       </c>
       <c r="D33"/>
       <c r="E33"/>
       <c r="F33"/>
       <c r="G33"/>
       <c r="H33" t="n">
-        <v>12.3</v>
+        <v>3.5</v>
       </c>
       <c r="I33" t="n">
-        <v>12.3</v>
+        <v>3.5</v>
       </c>
       <c r="J33" t="n">
-        <v>12.3</v>
+        <v>3.5</v>
       </c>
       <c r="K33" t="n">
-        <v>12.3</v>
+        <v>3.5</v>
       </c>
       <c r="L33" t="n">
-        <v>12.3</v>
+        <v>3.5</v>
       </c>
       <c r="M33" t="n">
-        <v>12.3</v>
+        <v>3.5</v>
       </c>
       <c r="N33" t="n">
-        <v>12.3</v>
+        <v>3.5</v>
       </c>
       <c r="O33" t="n">
-        <v>12.3</v>
+        <v>3.5</v>
       </c>
       <c r="P33" t="n">
-        <v>12.3</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="34">
@@ -38133,23 +38133,23 @@
         <v>69</v>
       </c>
       <c r="C34" t="n">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="D34"/>
       <c r="E34"/>
       <c r="F34"/>
       <c r="G34"/>
       <c r="H34" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="I34" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="J34" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K34" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L34" t="n">
         <v>3.5</v>
@@ -38175,38 +38175,38 @@
         <v>71</v>
       </c>
       <c r="C35" t="n">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="D35"/>
       <c r="E35"/>
       <c r="F35"/>
       <c r="G35"/>
       <c r="H35" t="n">
-        <v>3.2</v>
+        <v>1.5</v>
       </c>
       <c r="I35" t="n">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
       <c r="J35" t="n">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="K35" t="n">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="L35" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="M35" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="N35" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="O35" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="P35" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="36">
@@ -38217,38 +38217,40 @@
         <v>73</v>
       </c>
       <c r="C36" t="n">
-        <v>1.5</v>
+        <v>8.8</v>
       </c>
       <c r="D36"/>
       <c r="E36"/>
       <c r="F36"/>
-      <c r="G36"/>
+      <c r="G36" t="n">
+        <v>9.59755</v>
+      </c>
       <c r="H36" t="n">
-        <v>1.5</v>
+        <v>9.5</v>
       </c>
       <c r="I36" t="n">
-        <v>1.5</v>
+        <v>9.5</v>
       </c>
       <c r="J36" t="n">
-        <v>1.5</v>
+        <v>9.4</v>
       </c>
       <c r="K36" t="n">
-        <v>1.5</v>
+        <v>9.9</v>
       </c>
       <c r="L36" t="n">
-        <v>1.5</v>
+        <v>9.9</v>
       </c>
       <c r="M36" t="n">
-        <v>1.5</v>
+        <v>9.8</v>
       </c>
       <c r="N36" t="n">
-        <v>1.5</v>
+        <v>9.8</v>
       </c>
       <c r="O36" t="n">
-        <v>1.5</v>
+        <v>9.8</v>
       </c>
       <c r="P36" t="n">
-        <v>1.5</v>
+        <v>9.8</v>
       </c>
     </row>
     <row r="37">
@@ -38259,40 +38261,38 @@
         <v>75</v>
       </c>
       <c r="C37" t="n">
-        <v>8.8</v>
+        <v>6.6</v>
       </c>
       <c r="D37"/>
       <c r="E37"/>
       <c r="F37"/>
-      <c r="G37" t="n">
-        <v>9.59755</v>
-      </c>
+      <c r="G37"/>
       <c r="H37" t="n">
-        <v>9.5</v>
+        <v>7.1</v>
       </c>
       <c r="I37" t="n">
-        <v>9.5</v>
+        <v>7.2</v>
       </c>
       <c r="J37" t="n">
-        <v>9.4</v>
+        <v>7.2</v>
       </c>
       <c r="K37" t="n">
-        <v>9.9</v>
+        <v>7.3</v>
       </c>
       <c r="L37" t="n">
-        <v>9.9</v>
+        <v>7.4</v>
       </c>
       <c r="M37" t="n">
-        <v>9.8</v>
+        <v>7.5</v>
       </c>
       <c r="N37" t="n">
-        <v>9.8</v>
+        <v>7.5</v>
       </c>
       <c r="O37" t="n">
-        <v>9.8</v>
+        <v>7.5</v>
       </c>
       <c r="P37" t="n">
-        <v>9.8</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="38">
@@ -38303,38 +38303,40 @@
         <v>77</v>
       </c>
       <c r="C38" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="D38"/>
       <c r="E38"/>
       <c r="F38"/>
-      <c r="G38"/>
+      <c r="G38" t="n">
+        <v>6.55907</v>
+      </c>
       <c r="H38" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="I38" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="J38" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="K38" t="n">
+        <v>7</v>
+      </c>
+      <c r="L38" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="M38" t="n">
         <v>7.1</v>
       </c>
-      <c r="I38" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="J38" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="K38" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="L38" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="M38" t="n">
-        <v>7.5</v>
-      </c>
       <c r="N38" t="n">
-        <v>7.5</v>
+        <v>7.1</v>
       </c>
       <c r="O38" t="n">
-        <v>7.5</v>
+        <v>7.1</v>
       </c>
       <c r="P38" t="n">
-        <v>7.5</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="39">
@@ -38344,41 +38346,37 @@
       <c r="B39" t="s">
         <v>79</v>
       </c>
-      <c r="C39" t="n">
-        <v>6.5</v>
-      </c>
+      <c r="C39"/>
       <c r="D39"/>
       <c r="E39"/>
       <c r="F39"/>
-      <c r="G39" t="n">
-        <v>6.55907</v>
-      </c>
+      <c r="G39"/>
       <c r="H39" t="n">
-        <v>6.8</v>
+        <v>2.8</v>
       </c>
       <c r="I39" t="n">
-        <v>6.7</v>
+        <v>2.8</v>
       </c>
       <c r="J39" t="n">
-        <v>6.8</v>
+        <v>2.8</v>
       </c>
       <c r="K39" t="n">
-        <v>7</v>
+        <v>2.8</v>
       </c>
       <c r="L39" t="n">
-        <v>6.9</v>
+        <v>2.8</v>
       </c>
       <c r="M39" t="n">
-        <v>7.1</v>
+        <v>2.8</v>
       </c>
       <c r="N39" t="n">
-        <v>7.1</v>
+        <v>2.8</v>
       </c>
       <c r="O39" t="n">
-        <v>7.1</v>
+        <v>2.8</v>
       </c>
       <c r="P39" t="n">
-        <v>7.1</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="40">
@@ -38388,37 +38386,39 @@
       <c r="B40" t="s">
         <v>81</v>
       </c>
-      <c r="C40"/>
+      <c r="C40" t="n">
+        <v>5.5</v>
+      </c>
       <c r="D40"/>
       <c r="E40"/>
       <c r="F40"/>
       <c r="G40"/>
       <c r="H40" t="n">
-        <v>2.8</v>
+        <v>5.8</v>
       </c>
       <c r="I40" t="n">
-        <v>2.8</v>
+        <v>5.9</v>
       </c>
       <c r="J40" t="n">
-        <v>2.8</v>
+        <v>5.9</v>
       </c>
       <c r="K40" t="n">
-        <v>2.8</v>
+        <v>6</v>
       </c>
       <c r="L40" t="n">
-        <v>2.8</v>
+        <v>6</v>
       </c>
       <c r="M40" t="n">
-        <v>2.8</v>
+        <v>6.1</v>
       </c>
       <c r="N40" t="n">
-        <v>2.8</v>
+        <v>6.1</v>
       </c>
       <c r="O40" t="n">
-        <v>2.8</v>
+        <v>6.1</v>
       </c>
       <c r="P40" t="n">
-        <v>2.8</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="41">
@@ -38429,38 +38429,38 @@
         <v>83</v>
       </c>
       <c r="C41" t="n">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="D41"/>
       <c r="E41"/>
       <c r="F41"/>
       <c r="G41"/>
       <c r="H41" t="n">
-        <v>5.8</v>
+        <v>7.9</v>
       </c>
       <c r="I41" t="n">
-        <v>5.9</v>
+        <v>7.9</v>
       </c>
       <c r="J41" t="n">
-        <v>5.9</v>
+        <v>8</v>
       </c>
       <c r="K41" t="n">
-        <v>6</v>
+        <v>8.2</v>
       </c>
       <c r="L41" t="n">
-        <v>6</v>
+        <v>8.3</v>
       </c>
       <c r="M41" t="n">
-        <v>6.1</v>
+        <v>8.2</v>
       </c>
       <c r="N41" t="n">
-        <v>6.1</v>
+        <v>8.3</v>
       </c>
       <c r="O41" t="n">
-        <v>6.1</v>
+        <v>8.4</v>
       </c>
       <c r="P41" t="n">
-        <v>6.1</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="42">
@@ -38471,38 +38471,38 @@
         <v>85</v>
       </c>
       <c r="C42" t="n">
-        <v>8</v>
+        <v>3.2</v>
       </c>
       <c r="D42"/>
       <c r="E42"/>
       <c r="F42"/>
       <c r="G42"/>
       <c r="H42" t="n">
-        <v>7.9</v>
+        <v>3.7</v>
       </c>
       <c r="I42" t="n">
-        <v>7.9</v>
+        <v>3.8</v>
       </c>
       <c r="J42" t="n">
-        <v>8</v>
+        <v>3.9</v>
       </c>
       <c r="K42" t="n">
-        <v>8.2</v>
+        <v>4.1</v>
       </c>
       <c r="L42" t="n">
-        <v>8.3</v>
+        <v>4.2</v>
       </c>
       <c r="M42" t="n">
-        <v>8.2</v>
+        <v>4.3</v>
       </c>
       <c r="N42" t="n">
-        <v>8.3</v>
+        <v>4.3</v>
       </c>
       <c r="O42" t="n">
-        <v>8.4</v>
+        <v>4.3</v>
       </c>
       <c r="P42" t="n">
-        <v>8.4</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="43">
@@ -44143,38 +44143,38 @@
         <v>357</v>
       </c>
       <c r="C178" t="n">
-        <v>10.7</v>
+        <v>11.6</v>
       </c>
       <c r="D178"/>
       <c r="E178"/>
       <c r="F178"/>
       <c r="G178"/>
       <c r="H178" t="n">
-        <v>11.1</v>
+        <v>12.2</v>
       </c>
       <c r="I178" t="n">
-        <v>11.2</v>
+        <v>12.2</v>
       </c>
       <c r="J178" t="n">
-        <v>11.2</v>
+        <v>12.2</v>
       </c>
       <c r="K178" t="n">
-        <v>11.2</v>
+        <v>12.3</v>
       </c>
       <c r="L178" t="n">
-        <v>11.2</v>
+        <v>12.3</v>
       </c>
       <c r="M178" t="n">
-        <v>11.3</v>
+        <v>12.3</v>
       </c>
       <c r="N178" t="n">
-        <v>11.3</v>
+        <v>12.3</v>
       </c>
       <c r="O178" t="n">
-        <v>11.3</v>
+        <v>12.3</v>
       </c>
       <c r="P178" t="n">
-        <v>11.3</v>
+        <v>12.3</v>
       </c>
     </row>
     <row r="179">
@@ -44185,38 +44185,38 @@
         <v>359</v>
       </c>
       <c r="C179" t="n">
-        <v>11.6</v>
+        <v>10.7</v>
       </c>
       <c r="D179"/>
       <c r="E179"/>
       <c r="F179"/>
       <c r="G179"/>
       <c r="H179" t="n">
-        <v>12.2</v>
+        <v>11.1</v>
       </c>
       <c r="I179" t="n">
-        <v>12.2</v>
+        <v>11.2</v>
       </c>
       <c r="J179" t="n">
-        <v>12.2</v>
+        <v>11.2</v>
       </c>
       <c r="K179" t="n">
-        <v>12.3</v>
+        <v>11.2</v>
       </c>
       <c r="L179" t="n">
-        <v>12.3</v>
+        <v>11.2</v>
       </c>
       <c r="M179" t="n">
-        <v>12.3</v>
+        <v>11.3</v>
       </c>
       <c r="N179" t="n">
-        <v>12.3</v>
+        <v>11.3</v>
       </c>
       <c r="O179" t="n">
-        <v>12.3</v>
+        <v>11.3</v>
       </c>
       <c r="P179" t="n">
-        <v>12.3</v>
+        <v>11.3</v>
       </c>
     </row>
     <row r="180">
